--- a/Incentive_COM/result/Trần Trọng Hiếu.xlsx
+++ b/Incentive_COM/result/Trần Trọng Hiếu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Vũ Ngọc Như</t>
   </si>
   <si>
-    <t>Lê Nguyễn Thụy Giao</t>
-  </si>
-  <si>
     <t>CJ INNERB</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>ROMAND</t>
   </si>
   <si>
-    <t>TRIUMPH</t>
-  </si>
-  <si>
     <t>CJ - SHOPEE</t>
   </si>
   <si>
@@ -119,15 +113,6 @@
     <t>ROMAND - LAZADA</t>
   </si>
   <si>
-    <t>TRIUMPH - SHOPEE</t>
-  </si>
-  <si>
-    <t>TRIUMPH - LAZADA</t>
-  </si>
-  <si>
-    <t>TRIUMPH - TIKI</t>
-  </si>
-  <si>
     <t>B2C</t>
   </si>
   <si>
@@ -143,52 +128,43 @@
     <t>0.00%</t>
   </si>
   <si>
-    <t>45.99%</t>
-  </si>
-  <si>
-    <t>47.72%</t>
-  </si>
-  <si>
-    <t>59.00%</t>
-  </si>
-  <si>
-    <t>46.72%</t>
-  </si>
-  <si>
-    <t>146.21%</t>
-  </si>
-  <si>
-    <t>57.50%</t>
-  </si>
-  <si>
-    <t>75.54%</t>
-  </si>
-  <si>
-    <t>100.22%</t>
-  </si>
-  <si>
-    <t>89.52%</t>
-  </si>
-  <si>
-    <t>98.31%</t>
-  </si>
-  <si>
-    <t>24.60%</t>
-  </si>
-  <si>
-    <t>45.44%</t>
-  </si>
-  <si>
-    <t>27.35%</t>
-  </si>
-  <si>
-    <t>34.95%</t>
-  </si>
-  <si>
-    <t>-18.79%</t>
-  </si>
-  <si>
-    <t>64.12%</t>
+    <t>78.52%</t>
+  </si>
+  <si>
+    <t>110.37%</t>
+  </si>
+  <si>
+    <t>464.00%</t>
+  </si>
+  <si>
+    <t>89.95%</t>
+  </si>
+  <si>
+    <t>97.74%</t>
+  </si>
+  <si>
+    <t>64.35%</t>
+  </si>
+  <si>
+    <t>106.57%</t>
+  </si>
+  <si>
+    <t>296.24%</t>
+  </si>
+  <si>
+    <t>43.60%</t>
+  </si>
+  <si>
+    <t>154.52%</t>
+  </si>
+  <si>
+    <t>151.40%</t>
+  </si>
+  <si>
+    <t>-62.00%</t>
+  </si>
+  <si>
+    <t>46.28%</t>
   </si>
   <si>
     <t>Name</t>
@@ -197,16 +173,22 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>73.85%</t>
-  </si>
-  <si>
-    <t>67.83%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
+    <t>128.92%</t>
+  </si>
+  <si>
+    <t>115.79%</t>
+  </si>
+  <si>
+    <t>-19.70%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>29.00%</t>
   </si>
 </sst>
 </file>
@@ -585,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,38 +637,38 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2">
+        <v>52503</v>
+      </c>
+      <c r="K2" s="2">
+        <v>66862</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2">
-        <v>59868</v>
-      </c>
-      <c r="K2" s="2">
-        <v>130171</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
@@ -694,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2">
-        <v>7902.576</v>
+        <v>6930.396000000001</v>
       </c>
       <c r="Q2" s="2">
-        <v>17182.572</v>
+        <v>8825.784</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -714,19 +696,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -735,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2">
-        <v>42610</v>
+        <v>39290</v>
       </c>
       <c r="K3" s="2">
-        <v>89300</v>
+        <v>35600</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -753,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P3" s="2">
-        <v>5624.52</v>
+        <v>5186.280000000001</v>
       </c>
       <c r="Q3" s="2">
-        <v>11787.6</v>
+        <v>4699.2</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -773,38 +755,38 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2">
+        <v>464</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2">
-        <v>295</v>
-      </c>
-      <c r="K4" s="2">
-        <v>500</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
@@ -812,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2">
-        <v>38.94</v>
+        <v>61.248</v>
       </c>
       <c r="Q4" s="2">
-        <v>66</v>
+        <v>13.2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -838,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -853,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J5" s="3">
-        <v>102773</v>
+        <v>92257</v>
       </c>
       <c r="K5" s="3">
-        <v>219971</v>
+        <v>102562</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -871,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P5" s="3">
-        <v>13566.036</v>
+        <v>12177.924</v>
       </c>
       <c r="Q5" s="3">
-        <v>29036.172</v>
+        <v>13538.184</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -891,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -912,17 +894,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2">
+        <v>34208</v>
+      </c>
+      <c r="K6" s="2">
+        <v>35000</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2">
-        <v>74204</v>
-      </c>
-      <c r="K6" s="2">
-        <v>50750</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
@@ -930,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2291.936</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2345</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="2">
-        <v>7613.3304</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>5206.95</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="S6" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -950,19 +932,19 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -971,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2">
-        <v>28414</v>
+        <v>14414</v>
       </c>
       <c r="K7" s="2">
-        <v>49415</v>
+        <v>22400</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -989,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P7" s="2">
-        <v>2915.2764</v>
+        <v>965.7380000000001</v>
       </c>
       <c r="Q7" s="2">
-        <v>5069.979</v>
+        <v>1500.8</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1009,19 +991,19 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1030,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2">
-        <v>13710</v>
+        <v>8099</v>
       </c>
       <c r="K8" s="2">
-        <v>18150</v>
+        <v>7600</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1048,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P8" s="2">
-        <v>1406.646</v>
+        <v>542.633</v>
       </c>
       <c r="Q8" s="2">
-        <v>1862.19</v>
+        <v>509.2</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1068,19 +1050,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1089,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2">
-        <v>130956</v>
+        <v>169708</v>
       </c>
       <c r="K9" s="2">
-        <v>130673</v>
+        <v>57287.99999999999</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1107,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P9" s="2">
-        <v>7857.36</v>
+        <v>10182.48</v>
       </c>
       <c r="Q9" s="2">
-        <v>7840.38</v>
+        <v>3437.279999999999</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1127,19 +1109,19 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1148,16 +1130,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2">
-        <v>25514</v>
+        <v>14729</v>
       </c>
       <c r="K10" s="2">
-        <v>28500</v>
+        <v>33780.99999999989</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1166,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P10" s="2">
-        <v>1530.84</v>
+        <v>883.74</v>
       </c>
       <c r="Q10" s="2">
-        <v>1710</v>
+        <v>2026.859999999993</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1192,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1207,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3">
-        <v>272798</v>
+        <v>241158</v>
       </c>
       <c r="K11" s="3">
-        <v>277488</v>
+        <v>156068.9999999999</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1225,255 +1207,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P11" s="3">
-        <v>21323.4528</v>
+        <v>14866.527</v>
       </c>
       <c r="Q11" s="3">
-        <v>21689.499</v>
+        <v>9819.139999999992</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2">
-        <v>2385</v>
-      </c>
-      <c r="K12" s="2">
-        <v>9694.73333333333</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="2">
-        <v>166.95</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>678.6313333333331</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="2">
-        <v>4679</v>
-      </c>
-      <c r="K13" s="2">
-        <v>10296.55</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="2">
-        <v>327.53</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>720.7585</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="2">
-        <v>279</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1020</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="2">
-        <v>19.53</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7343</v>
-      </c>
-      <c r="K15" s="3">
-        <v>21011.28333333333</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="3">
-        <v>514.01</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1470.789833333333</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1491,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1533,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1544,31 +1290,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>102773</v>
+        <v>92257</v>
       </c>
       <c r="F2" s="2">
-        <v>219971</v>
+        <v>102562</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>13566.036</v>
+        <v>12177.924</v>
       </c>
       <c r="L2" s="2">
-        <v>29036.172</v>
+        <v>13538.184</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1579,101 +1325,66 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>272798</v>
+        <v>241158</v>
       </c>
       <c r="F3" s="2">
-        <v>277488</v>
+        <v>156068.9999999999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>21323.4528</v>
+        <v>14866.527</v>
       </c>
       <c r="L3" s="2">
-        <v>21689.499</v>
+        <v>9819.139999999992</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>333415</v>
+      </c>
+      <c r="F4" s="4">
+        <v>258630.9999999999</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>27044.451</v>
+      </c>
+      <c r="L4" s="4">
+        <v>23357.32399999999</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>7343</v>
-      </c>
-      <c r="F4" s="2">
-        <v>21011.28333333333</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>514.01</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1470.789833333333</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>382914</v>
-      </c>
-      <c r="F5" s="4">
-        <v>518470.2833333333</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>35403.49879999999</v>
-      </c>
-      <c r="L5" s="4">
-        <v>52196.46083333333</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
